--- a/PLA-Planilha de Avaliação .xlsx
+++ b/PLA-Planilha de Avaliação .xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="132">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -310,13 +310,169 @@
   <si>
     <t>RAP 10. (A partir do nível F) A aderência dos processos executados às descrições de processo, padrões e procedimentos é avaliada objetivamente e são tratadas as não conformidades.                                                                           
 As evidências apresentadas para este resultado permitem assegurar que: (i) foi verificado se o processo foi executado seguindo  as descrições do processo, padrões e procedimentos aplicáveis? (ii) em caso de não conformidades, ações corretivas são estabelecidas e gerenciadas até a sua conclusão?</t>
+  </si>
+  <si>
+    <t>Configuração</t>
+  </si>
+  <si>
+    <t>Gerencia de Configuração Seção 2</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Documento de Requisitos</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>Aceitação Cliente</t>
+  </si>
+  <si>
+    <t>Aceitação</t>
+  </si>
+  <si>
+    <t>Aceitação Equipe</t>
+  </si>
+  <si>
+    <t>CheckList</t>
+  </si>
+  <si>
+    <t>CheckList Requisitos Seção 2</t>
+  </si>
+  <si>
+    <t>Matriz de Rastreabilidade Requisito para Requisito</t>
+  </si>
+  <si>
+    <t>Matriz</t>
+  </si>
+  <si>
+    <t>Matriz de Rastreabilidade Requisito para Codigo</t>
+  </si>
+  <si>
+    <t>Template Solicitação de Mudança</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>CheckList Planos Seção 1</t>
+  </si>
+  <si>
+    <t>obs: não foram feitas solicitações de mudanças</t>
+  </si>
+  <si>
+    <t>Declaração de Escopo</t>
+  </si>
+  <si>
+    <t>Escopo</t>
+  </si>
+  <si>
+    <t>Plano de Projeto Seção 8</t>
+  </si>
+  <si>
+    <t>EAP</t>
+  </si>
+  <si>
+    <t>Plano de Projeto Seção 5,6 e 7</t>
+  </si>
+  <si>
+    <t>Ciclo de Vida</t>
+  </si>
+  <si>
+    <t>Cronograma Esforço</t>
+  </si>
+  <si>
+    <t>Esforço</t>
+  </si>
+  <si>
+    <t>Plano de Projeto</t>
+  </si>
+  <si>
+    <t>Plano de Projeto Seção 11</t>
+  </si>
+  <si>
+    <t>Cronograma</t>
+  </si>
+  <si>
+    <t>Metodo de Estimativa</t>
+  </si>
+  <si>
+    <t>Gerencia de Risco</t>
+  </si>
+  <si>
+    <t>Riscos</t>
+  </si>
+  <si>
+    <t>Formação Competencias</t>
+  </si>
+  <si>
+    <t>Competencias</t>
+  </si>
+  <si>
+    <t>Plano de Projeto Seção 10</t>
+  </si>
+  <si>
+    <t>Papeis</t>
+  </si>
+  <si>
+    <t>Plano de Projeto Seção 9</t>
+  </si>
+  <si>
+    <t>Ambiente</t>
+  </si>
+  <si>
+    <t>Gerencia de Configuração</t>
+  </si>
+  <si>
+    <t>Plano</t>
+  </si>
+  <si>
+    <t>Estudo de Viabilidade</t>
+  </si>
+  <si>
+    <t>Viabilidade</t>
+  </si>
+  <si>
+    <t>Aprovação Plano de Projeto</t>
+  </si>
+  <si>
+    <t>Aprovação</t>
+  </si>
+  <si>
+    <t>Relatorio de Acompanhamento</t>
+  </si>
+  <si>
+    <t>Ralatorio</t>
+  </si>
+  <si>
+    <t>Relatorio</t>
+  </si>
+  <si>
+    <t>Fornecedor de Requisitos</t>
+  </si>
+  <si>
+    <t>Relatorio de Marco</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relatorio de Problemas </t>
+  </si>
+  <si>
+    <t>Problemas</t>
+  </si>
+  <si>
+    <t>Acompanhamento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -411,11 +567,6 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -855,7 +1006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1069,32 +1220,23 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1700,7 +1842,7 @@
   <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1815,7 +1957,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>30</v>
       </c>
@@ -1838,10 +1980,16 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>80</v>
+      </c>
       <c r="C6" s="73"/>
-      <c r="D6" s="75"/>
+      <c r="D6" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="E6" s="72"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
@@ -1858,10 +2006,16 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>84</v>
+      </c>
       <c r="C7" s="73"/>
-      <c r="D7" s="76"/>
+      <c r="D7" s="76" t="s">
+        <v>82</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -1878,10 +2032,16 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>86</v>
+      </c>
       <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="D8" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -1898,10 +2058,16 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="D9" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -1982,10 +2148,16 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="77"/>
-      <c r="B13" s="81"/>
+      <c r="A13" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>86</v>
+      </c>
       <c r="C13" s="73"/>
-      <c r="D13" s="75"/>
+      <c r="D13" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="E13" s="72"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -2002,10 +2174,16 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="77"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>88</v>
+      </c>
       <c r="C14" s="73"/>
-      <c r="D14" s="75"/>
+      <c r="D14" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -2103,7 +2281,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>40</v>
       </c>
@@ -2126,10 +2304,16 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="81"/>
+      <c r="A20" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>91</v>
+      </c>
       <c r="C20" s="73"/>
-      <c r="D20" s="75"/>
+      <c r="D20" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="E20" s="72"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -2146,10 +2330,16 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="C21" s="73"/>
-      <c r="D21" s="78"/>
+      <c r="D21" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -2247,7 +2437,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>44</v>
       </c>
@@ -2270,10 +2460,16 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="82"/>
+      <c r="A27" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>88</v>
+      </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="79"/>
+      <c r="D27" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E27" s="72"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
@@ -2290,7 +2486,7 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="83"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -2414,11 +2610,17 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="81"/>
+      <c r="A34" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="79" t="s">
+        <v>94</v>
+      </c>
       <c r="C34" s="25"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="80"/>
+      <c r="D34" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="78"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -2434,7 +2636,9 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="83"/>
+      <c r="A35" s="80" t="s">
+        <v>96</v>
+      </c>
       <c r="B35" s="39"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4660,8 +4864,19 @@
       <c r="R142" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D13" r:id="rId4"/>
+    <hyperlink ref="D20" r:id="rId5"/>
+    <hyperlink ref="D21" r:id="rId6"/>
+    <hyperlink ref="D34" r:id="rId7"/>
+    <hyperlink ref="D27" r:id="rId8"/>
+    <hyperlink ref="D9" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -4669,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R324"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:D146"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4785,7 +5000,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
@@ -4808,10 +5023,16 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="79"/>
+      <c r="D6" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E6" s="72"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
@@ -4929,7 +5150,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>18</v>
       </c>
@@ -4952,10 +5173,16 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="77"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="79"/>
+      <c r="D13" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E13" s="72"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -5096,10 +5323,16 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>102</v>
+      </c>
       <c r="C20" s="25"/>
-      <c r="D20" s="79"/>
+      <c r="D20" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E20" s="72"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -5217,7 +5450,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>29</v>
       </c>
@@ -5240,10 +5473,16 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="84"/>
+      <c r="A27" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>104</v>
+      </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="79"/>
+      <c r="D27" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E27" s="72"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
@@ -5260,10 +5499,16 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="D28" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
@@ -5530,10 +5775,16 @@
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="C41" s="25"/>
-      <c r="D41" s="79"/>
+      <c r="D41" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E41" s="72"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
@@ -5657,7 +5908,7 @@
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -5674,10 +5925,16 @@
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="85"/>
+      <c r="A48" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="73"/>
+      <c r="D48" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="E48" s="72"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
@@ -5696,8 +5953,8 @@
     <row r="49" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="82"/>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
@@ -5818,10 +6075,16 @@
       <c r="R54" s="1"/>
     </row>
     <row r="55" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="77"/>
-      <c r="B55" s="82"/>
+      <c r="A55" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>112</v>
+      </c>
       <c r="C55" s="25"/>
-      <c r="D55" s="79"/>
+      <c r="D55" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E55" s="72"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
@@ -5838,10 +6101,16 @@
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
-      <c r="B56" s="25"/>
+      <c r="A56" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="D56" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
@@ -5962,10 +6231,16 @@
       <c r="R61" s="1"/>
     </row>
     <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="77"/>
-      <c r="B62" s="82"/>
+      <c r="A62" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>116</v>
+      </c>
       <c r="C62" s="25"/>
-      <c r="D62" s="79"/>
+      <c r="D62" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E62" s="72"/>
       <c r="F62" s="25"/>
       <c r="G62" s="25"/>
@@ -6252,10 +6527,16 @@
       <c r="R75" s="1"/>
     </row>
     <row r="76" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="77"/>
-      <c r="B76" s="82"/>
+      <c r="A76" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>80</v>
+      </c>
       <c r="C76" s="25"/>
-      <c r="D76" s="79"/>
+      <c r="D76" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E76" s="72"/>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
@@ -6396,10 +6677,16 @@
       <c r="R82" s="1"/>
     </row>
     <row r="83" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="23"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="C83" s="25"/>
-      <c r="D83" s="79"/>
+      <c r="D83" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E83" s="72"/>
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
@@ -6540,10 +6827,16 @@
       <c r="R89" s="1"/>
     </row>
     <row r="90" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="77"/>
-      <c r="B90" s="82"/>
+      <c r="A90" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>120</v>
+      </c>
       <c r="C90" s="25"/>
-      <c r="D90" s="79"/>
+      <c r="D90" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E90" s="72"/>
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
@@ -6684,10 +6977,16 @@
       <c r="R96" s="1"/>
     </row>
     <row r="97" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="77"/>
-      <c r="B97" s="82"/>
+      <c r="A97" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="C97" s="25"/>
-      <c r="D97" s="79"/>
+      <c r="D97" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E97" s="72"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
@@ -6811,7 +7110,7 @@
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
+      <c r="D103" s="47"/>
       <c r="E103" s="22"/>
       <c r="F103" s="22"/>
       <c r="G103" s="22"/>
@@ -6828,10 +7127,16 @@
       <c r="R103" s="1"/>
     </row>
     <row r="104" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="23"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="85"/>
+      <c r="A104" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104" s="73"/>
+      <c r="D104" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="E104" s="72"/>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -6850,8 +7155,8 @@
     <row r="105" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="26"/>
       <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="82"/>
       <c r="E105" s="25"/>
       <c r="F105" s="25"/>
       <c r="G105" s="25"/>
@@ -6972,10 +7277,16 @@
       <c r="R110" s="1"/>
     </row>
     <row r="111" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="26"/>
-      <c r="B111" s="38"/>
+      <c r="A111" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="38" t="s">
+        <v>124</v>
+      </c>
       <c r="C111" s="25"/>
-      <c r="D111" s="79"/>
+      <c r="D111" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E111" s="72"/>
       <c r="F111" s="25"/>
       <c r="G111" s="25"/>
@@ -7116,10 +7427,16 @@
       <c r="R117" s="1"/>
     </row>
     <row r="118" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="26"/>
-      <c r="B118" s="38"/>
+      <c r="A118" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" s="38" t="s">
+        <v>124</v>
+      </c>
       <c r="C118" s="25"/>
-      <c r="D118" s="79"/>
+      <c r="D118" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E118" s="72"/>
       <c r="F118" s="25"/>
       <c r="G118" s="25"/>
@@ -7260,10 +7577,16 @@
       <c r="R124" s="1"/>
     </row>
     <row r="125" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="23"/>
-      <c r="B125" s="25"/>
+      <c r="A125" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>125</v>
+      </c>
       <c r="C125" s="25"/>
-      <c r="D125" s="79"/>
+      <c r="D125" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E125" s="72"/>
       <c r="F125" s="25"/>
       <c r="G125" s="25"/>
@@ -7280,10 +7603,16 @@
       <c r="R125" s="1"/>
     </row>
     <row r="126" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="26"/>
-      <c r="B126" s="25"/>
+      <c r="A126" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B126" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
+      <c r="D126" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E126" s="25"/>
       <c r="F126" s="25"/>
       <c r="G126" s="25"/>
@@ -7404,10 +7733,16 @@
       <c r="R131" s="1"/>
     </row>
     <row r="132" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="23"/>
-      <c r="B132" s="25"/>
+      <c r="A132" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B132" s="25" t="s">
+        <v>128</v>
+      </c>
       <c r="C132" s="25"/>
-      <c r="D132" s="79"/>
+      <c r="D132" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E132" s="72"/>
       <c r="F132" s="25"/>
       <c r="G132" s="25"/>
@@ -7548,10 +7883,16 @@
       <c r="R138" s="1"/>
     </row>
     <row r="139" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="23"/>
-      <c r="B139" s="25"/>
+      <c r="A139" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B139" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="C139" s="25"/>
-      <c r="D139" s="79"/>
+      <c r="D139" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E139" s="72"/>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -7568,10 +7909,16 @@
       <c r="R139" s="1"/>
     </row>
     <row r="140" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="26"/>
-      <c r="B140" s="25"/>
+      <c r="A140" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B140" s="25" t="s">
+        <v>131</v>
+      </c>
       <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
+      <c r="D140" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E140" s="25"/>
       <c r="F140" s="25"/>
       <c r="G140" s="25"/>
@@ -7692,10 +8039,16 @@
       <c r="R145" s="1"/>
     </row>
     <row r="146" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="26"/>
-      <c r="B146" s="38"/>
-      <c r="C146" s="25"/>
-      <c r="D146" s="79"/>
+      <c r="A146" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B146" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C146" s="38"/>
+      <c r="D146" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E146" s="72"/>
       <c r="F146" s="25"/>
       <c r="G146" s="25"/>
@@ -7712,10 +8065,16 @@
       <c r="R146" s="1"/>
     </row>
     <row r="147" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="26"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="25"/>
+      <c r="A147" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B147" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C147" s="38"/>
+      <c r="D147" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="E147" s="25"/>
       <c r="F147" s="25"/>
       <c r="G147" s="25"/>
@@ -11398,7 +11757,33 @@
       <c r="R324" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D13" r:id="rId2"/>
+    <hyperlink ref="D20" r:id="rId3"/>
+    <hyperlink ref="D27" r:id="rId4"/>
+    <hyperlink ref="D28" r:id="rId5"/>
+    <hyperlink ref="D41" r:id="rId6"/>
+    <hyperlink ref="D48" r:id="rId7"/>
+    <hyperlink ref="D55" r:id="rId8"/>
+    <hyperlink ref="D56" r:id="rId9"/>
+    <hyperlink ref="D62" r:id="rId10"/>
+    <hyperlink ref="D76" r:id="rId11"/>
+    <hyperlink ref="D83" r:id="rId12"/>
+    <hyperlink ref="D90" r:id="rId13"/>
+    <hyperlink ref="D97" r:id="rId14"/>
+    <hyperlink ref="D104" r:id="rId15"/>
+    <hyperlink ref="D111" r:id="rId16"/>
+    <hyperlink ref="D118" r:id="rId17"/>
+    <hyperlink ref="D125" r:id="rId18"/>
+    <hyperlink ref="D126" r:id="rId19"/>
+    <hyperlink ref="D132" r:id="rId20"/>
+    <hyperlink ref="D139" r:id="rId21"/>
+    <hyperlink ref="D140" r:id="rId22"/>
+    <hyperlink ref="D146" r:id="rId23"/>
+    <hyperlink ref="D147" r:id="rId24"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId25"/>
 </worksheet>
 </file>